--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H2">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I2">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J2">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.806530893214324</v>
+        <v>0.9392856666666667</v>
       </c>
       <c r="N2">
-        <v>0.806530893214324</v>
+        <v>2.817857</v>
       </c>
       <c r="O2">
-        <v>0.1827014194891425</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="P2">
-        <v>0.1827014194891425</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="Q2">
-        <v>6.558345148061504</v>
+        <v>7.741899297984445</v>
       </c>
       <c r="R2">
-        <v>6.558345148061504</v>
+        <v>69.67709368186</v>
       </c>
       <c r="S2">
-        <v>0.02764073376526066</v>
+        <v>0.02810383846289617</v>
       </c>
       <c r="T2">
-        <v>0.02764073376526066</v>
+        <v>0.02810383846289617</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H3">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I3">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J3">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.74740698982626</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N3">
-        <v>1.74740698982626</v>
+        <v>6.020458</v>
       </c>
       <c r="O3">
-        <v>0.3958357208043984</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="P3">
-        <v>0.3958357208043984</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="Q3">
-        <v>14.20912484547626</v>
+        <v>16.54086050631555</v>
       </c>
       <c r="R3">
-        <v>14.20912484547626</v>
+        <v>148.86774455684</v>
       </c>
       <c r="S3">
-        <v>0.05988563090602936</v>
+        <v>0.06004491324600606</v>
       </c>
       <c r="T3">
-        <v>0.05988563090602936</v>
+        <v>0.06004491324600607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.13154859068581</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H4">
-        <v>8.13154859068581</v>
+        <v>24.72698</v>
       </c>
       <c r="I4">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J4">
-        <v>0.1512891024193891</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.86053736006093</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="N4">
-        <v>1.86053736006093</v>
+        <v>0.030704</v>
       </c>
       <c r="O4">
-        <v>0.421462859706459</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="P4">
-        <v>0.421462859706459</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="Q4">
-        <v>15.12904994812175</v>
+        <v>0.08435746599111112</v>
       </c>
       <c r="R4">
-        <v>15.12904994812175</v>
+        <v>0.75921719392</v>
       </c>
       <c r="S4">
-        <v>0.06376273774809911</v>
+        <v>0.0003062257084602816</v>
       </c>
       <c r="T4">
-        <v>0.06376273774809911</v>
+        <v>0.0003062257084602817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.0473814239461</v>
+        <v>8.242326666666667</v>
       </c>
       <c r="H5">
-        <v>16.0473814239461</v>
+        <v>24.72698</v>
       </c>
       <c r="I5">
-        <v>0.2985647696419441</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="J5">
-        <v>0.2985647696419441</v>
+        <v>0.1455255597722841</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806530893214324</v>
+        <v>1.907411333333333</v>
       </c>
       <c r="N5">
-        <v>0.806530893214324</v>
+        <v>5.722234</v>
       </c>
       <c r="O5">
-        <v>0.1827014194891425</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="P5">
-        <v>0.1827014194891425</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="Q5">
-        <v>12.9427088736062</v>
+        <v>15.72150729703556</v>
       </c>
       <c r="R5">
-        <v>12.9427088736062</v>
+        <v>141.49356567332</v>
       </c>
       <c r="S5">
-        <v>0.05454820722303202</v>
+        <v>0.05707058235492155</v>
       </c>
       <c r="T5">
-        <v>0.05454820722303202</v>
+        <v>0.05707058235492157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H6">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I6">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J6">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.74740698982626</v>
+        <v>0.9392856666666667</v>
       </c>
       <c r="N6">
-        <v>1.74740698982626</v>
+        <v>2.817857</v>
       </c>
       <c r="O6">
-        <v>0.3958357208043984</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="P6">
-        <v>0.3958357208043984</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="Q6">
-        <v>28.0413064686115</v>
+        <v>15.23701819419422</v>
       </c>
       <c r="R6">
-        <v>28.0413064686115</v>
+        <v>137.133163747748</v>
       </c>
       <c r="S6">
-        <v>0.1181826007980181</v>
+        <v>0.05531184035128542</v>
       </c>
       <c r="T6">
-        <v>0.1181826007980181</v>
+        <v>0.05531184035128542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.0473814239461</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H7">
-        <v>16.0473814239461</v>
+        <v>48.665764</v>
       </c>
       <c r="I7">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J7">
-        <v>0.2985647696419441</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86053736006093</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N7">
-        <v>1.86053736006093</v>
+        <v>6.020458</v>
       </c>
       <c r="O7">
-        <v>0.421462859706459</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="P7">
-        <v>0.421462859706459</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="Q7">
-        <v>29.85675267039948</v>
+        <v>32.55446535554577</v>
       </c>
       <c r="R7">
-        <v>29.85675267039948</v>
+        <v>292.990188199912</v>
       </c>
       <c r="S7">
-        <v>0.1258339616208939</v>
+        <v>0.1181758377865232</v>
       </c>
       <c r="T7">
-        <v>0.1258339616208939</v>
+        <v>0.1181758377865233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.970202244922881</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H8">
-        <v>9.970202244922881</v>
+        <v>48.665764</v>
       </c>
       <c r="I8">
-        <v>0.1854976246839282</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J8">
-        <v>0.1854976246839282</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.806530893214324</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="N8">
-        <v>0.806530893214324</v>
+        <v>0.030704</v>
       </c>
       <c r="O8">
-        <v>0.1827014194891425</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="P8">
-        <v>0.1827014194891425</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="Q8">
-        <v>8.04127612212511</v>
+        <v>0.1660259575395555</v>
       </c>
       <c r="R8">
-        <v>8.04127612212511</v>
+        <v>1.494233617856</v>
       </c>
       <c r="S8">
-        <v>0.03389067934161787</v>
+        <v>0.0006026901812781369</v>
       </c>
       <c r="T8">
-        <v>0.03389067934161787</v>
+        <v>0.0006026901812781371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.970202244922881</v>
+        <v>16.22192133333333</v>
       </c>
       <c r="H9">
-        <v>9.970202244922881</v>
+        <v>48.665764</v>
       </c>
       <c r="I9">
-        <v>0.1854976246839282</v>
+        <v>0.2864123539488392</v>
       </c>
       <c r="J9">
-        <v>0.1854976246839282</v>
+        <v>0.2864123539488393</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.74740698982626</v>
+        <v>1.907411333333333</v>
       </c>
       <c r="N9">
-        <v>1.74740698982626</v>
+        <v>5.722234</v>
       </c>
       <c r="O9">
-        <v>0.3958357208043984</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="P9">
-        <v>0.3958357208043984</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="Q9">
-        <v>17.42200109275971</v>
+        <v>30.94187659964177</v>
       </c>
       <c r="R9">
-        <v>17.42200109275971</v>
+        <v>278.476889396776</v>
       </c>
       <c r="S9">
-        <v>0.07342658597426648</v>
+        <v>0.1123219856297524</v>
       </c>
       <c r="T9">
-        <v>0.07342658597426648</v>
+        <v>0.1123219856297525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.970202244922881</v>
+        <v>10.05778</v>
       </c>
       <c r="H10">
-        <v>9.970202244922881</v>
+        <v>30.17334</v>
       </c>
       <c r="I10">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J10">
-        <v>0.1854976246839282</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.86053736006093</v>
+        <v>0.9392856666666667</v>
       </c>
       <c r="N10">
-        <v>1.86053736006093</v>
+        <v>2.817857</v>
       </c>
       <c r="O10">
-        <v>0.421462859706459</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="P10">
-        <v>0.421462859706459</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="Q10">
-        <v>18.54993376404238</v>
+        <v>9.447128592486667</v>
       </c>
       <c r="R10">
-        <v>18.54993376404238</v>
+        <v>85.02415733238</v>
       </c>
       <c r="S10">
-        <v>0.07818035936804381</v>
+        <v>0.03429398467771007</v>
       </c>
       <c r="T10">
-        <v>0.07818035936804381</v>
+        <v>0.03429398467771008</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.2278574875854</v>
+        <v>10.05778</v>
       </c>
       <c r="H11">
-        <v>17.2278574875854</v>
+        <v>30.17334</v>
       </c>
       <c r="I11">
-        <v>0.3205277650177734</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J11">
-        <v>0.3205277650177734</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.806530893214324</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N11">
-        <v>0.806530893214324</v>
+        <v>6.020458</v>
       </c>
       <c r="O11">
-        <v>0.1827014194891425</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="P11">
-        <v>0.1827014194891425</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="Q11">
-        <v>13.89479928763133</v>
+        <v>20.18414735441333</v>
       </c>
       <c r="R11">
-        <v>13.89479928763133</v>
+        <v>181.65732618972</v>
       </c>
       <c r="S11">
-        <v>0.05856087765442951</v>
+        <v>0.07327039463138015</v>
       </c>
       <c r="T11">
-        <v>0.05856087765442951</v>
+        <v>0.07327039463138016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.2278574875854</v>
+        <v>10.05778</v>
       </c>
       <c r="H12">
-        <v>17.2278574875854</v>
+        <v>30.17334</v>
       </c>
       <c r="I12">
-        <v>0.3205277650177734</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J12">
-        <v>0.3205277650177734</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.74740698982626</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="N12">
-        <v>1.74740698982626</v>
+        <v>0.030704</v>
       </c>
       <c r="O12">
-        <v>0.3958357208043984</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="P12">
-        <v>0.3958357208043984</v>
+        <v>0.002104274389594917</v>
       </c>
       <c r="Q12">
-        <v>30.1040785935374</v>
+        <v>0.1029380257066667</v>
       </c>
       <c r="R12">
-        <v>30.1040785935374</v>
+        <v>0.9264422313599999</v>
       </c>
       <c r="S12">
-        <v>0.1268763389036332</v>
+        <v>0.0003736749258547931</v>
       </c>
       <c r="T12">
-        <v>0.1268763389036332</v>
+        <v>0.0003736749258547932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.2278574875854</v>
+        <v>10.05778</v>
       </c>
       <c r="H13">
-        <v>17.2278574875854</v>
+        <v>30.17334</v>
       </c>
       <c r="I13">
-        <v>0.3205277650177734</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="J13">
-        <v>0.3205277650177734</v>
+        <v>0.1775789924082702</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.86053736006093</v>
+        <v>1.907411333333333</v>
       </c>
       <c r="N13">
-        <v>1.86053736006093</v>
+        <v>5.722234</v>
       </c>
       <c r="O13">
-        <v>0.421462859706459</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="P13">
-        <v>0.421462859706459</v>
+        <v>0.3921687876976707</v>
       </c>
       <c r="Q13">
-        <v>32.05307248945807</v>
+        <v>19.18432356017333</v>
       </c>
       <c r="R13">
-        <v>32.05307248945807</v>
+        <v>172.65891204156</v>
       </c>
       <c r="S13">
-        <v>0.1350905484597107</v>
+        <v>0.06964093817332519</v>
       </c>
       <c r="T13">
-        <v>0.1350905484597107</v>
+        <v>0.0696409381733252</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.37141949481771</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H14">
-        <v>2.37141949481771</v>
+        <v>59.028022</v>
       </c>
       <c r="I14">
-        <v>0.04412073823696528</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J14">
-        <v>0.04412073823696528</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.806530893214324</v>
+        <v>0.9392856666666667</v>
       </c>
       <c r="N14">
-        <v>0.806530893214324</v>
+        <v>2.817857</v>
       </c>
       <c r="O14">
-        <v>0.1827014194891425</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="P14">
-        <v>0.1827014194891425</v>
+        <v>0.193119603916127</v>
       </c>
       <c r="Q14">
-        <v>1.912623083341189</v>
+        <v>18.48139166542822</v>
       </c>
       <c r="R14">
-        <v>1.912623083341189</v>
+        <v>166.332524988854</v>
       </c>
       <c r="S14">
-        <v>0.008060921504802442</v>
+        <v>0.06708922784231157</v>
       </c>
       <c r="T14">
-        <v>0.008060921504802442</v>
+        <v>0.06708922784231157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.37141949481771</v>
+        <v>19.67600733333333</v>
       </c>
       <c r="H15">
-        <v>2.37141949481771</v>
+        <v>59.028022</v>
       </c>
       <c r="I15">
-        <v>0.04412073823696528</v>
+        <v>0.3473972941216719</v>
       </c>
       <c r="J15">
-        <v>0.04412073823696528</v>
+        <v>0.347397294121672</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.74740698982626</v>
+        <v>2.006819333333333</v>
       </c>
       <c r="N15">
-        <v>1.74740698982626</v>
+        <v>6.020458</v>
       </c>
       <c r="O15">
-        <v>0.3958357208043984</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="P15">
-        <v>0.3958357208043984</v>
+        <v>0.4126073339966074</v>
       </c>
       <c r="Q15">
-        <v>4.143835001054724</v>
+        <v>39.48619191934178</v>
       </c>
       <c r="R15">
-        <v>4.143835001054724</v>
+        <v>355.375727274076</v>
       </c>
       <c r="S15">
-        <v>0.01746456422245134</v>
+        <v>0.1433386713651783</v>
       </c>
       <c r="T15">
-        <v>0.01746456422245134</v>
+        <v>0.1433386713651784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.67600733333333</v>
+      </c>
+      <c r="H16">
+        <v>59.028022</v>
+      </c>
+      <c r="I16">
+        <v>0.3473972941216719</v>
+      </c>
+      <c r="J16">
+        <v>0.347397294121672</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01023466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.030704</v>
+      </c>
+      <c r="O16">
+        <v>0.002104274389594917</v>
+      </c>
+      <c r="P16">
+        <v>0.002104274389594917</v>
+      </c>
+      <c r="Q16">
+        <v>0.2013773763875556</v>
+      </c>
+      <c r="R16">
+        <v>1.812396387488</v>
+      </c>
+      <c r="S16">
+        <v>0.0007310192290348069</v>
+      </c>
+      <c r="T16">
+        <v>0.000731019229034807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.67600733333333</v>
+      </c>
+      <c r="H17">
+        <v>59.028022</v>
+      </c>
+      <c r="I17">
+        <v>0.3473972941216719</v>
+      </c>
+      <c r="J17">
+        <v>0.347397294121672</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.907411333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.722234</v>
+      </c>
+      <c r="O17">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="P17">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="Q17">
+        <v>37.53023938234978</v>
+      </c>
+      <c r="R17">
+        <v>337.772154441148</v>
+      </c>
+      <c r="S17">
+        <v>0.1362383756851472</v>
+      </c>
+      <c r="T17">
+        <v>0.1362383756851472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.37141949481771</v>
-      </c>
-      <c r="H16">
-        <v>2.37141949481771</v>
-      </c>
-      <c r="I16">
-        <v>0.04412073823696528</v>
-      </c>
-      <c r="J16">
-        <v>0.04412073823696528</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.86053736006093</v>
-      </c>
-      <c r="N16">
-        <v>1.86053736006093</v>
-      </c>
-      <c r="O16">
-        <v>0.421462859706459</v>
-      </c>
-      <c r="P16">
-        <v>0.421462859706459</v>
-      </c>
-      <c r="Q16">
-        <v>4.412114566485166</v>
-      </c>
-      <c r="R16">
-        <v>4.412114566485166</v>
-      </c>
-      <c r="S16">
-        <v>0.0185952525097115</v>
-      </c>
-      <c r="T16">
-        <v>0.0185952525097115</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.440308333333334</v>
+      </c>
+      <c r="H18">
+        <v>7.320925000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.04308579974893452</v>
+      </c>
+      <c r="J18">
+        <v>0.04308579974893453</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9392856666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.817857</v>
+      </c>
+      <c r="O18">
+        <v>0.193119603916127</v>
+      </c>
+      <c r="P18">
+        <v>0.193119603916127</v>
+      </c>
+      <c r="Q18">
+        <v>2.292146639747223</v>
+      </c>
+      <c r="R18">
+        <v>20.629319757725</v>
+      </c>
+      <c r="S18">
+        <v>0.0083207125819238</v>
+      </c>
+      <c r="T18">
+        <v>0.0083207125819238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.440308333333334</v>
+      </c>
+      <c r="H19">
+        <v>7.320925000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.04308579974893452</v>
+      </c>
+      <c r="J19">
+        <v>0.04308579974893453</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.006819333333333</v>
+      </c>
+      <c r="N19">
+        <v>6.020458</v>
+      </c>
+      <c r="O19">
+        <v>0.4126073339966074</v>
+      </c>
+      <c r="P19">
+        <v>0.4126073339966074</v>
+      </c>
+      <c r="Q19">
+        <v>4.897257942627778</v>
+      </c>
+      <c r="R19">
+        <v>44.07532148365</v>
+      </c>
+      <c r="S19">
+        <v>0.01777751696751957</v>
+      </c>
+      <c r="T19">
+        <v>0.01777751696751957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.440308333333334</v>
+      </c>
+      <c r="H20">
+        <v>7.320925000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.04308579974893452</v>
+      </c>
+      <c r="J20">
+        <v>0.04308579974893453</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01023466666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.030704</v>
+      </c>
+      <c r="O20">
+        <v>0.002104274389594917</v>
+      </c>
+      <c r="P20">
+        <v>0.002104274389594917</v>
+      </c>
+      <c r="Q20">
+        <v>0.02497574235555556</v>
+      </c>
+      <c r="R20">
+        <v>0.2247816812</v>
+      </c>
+      <c r="S20">
+        <v>9.066434496689801E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.066434496689802E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.440308333333334</v>
+      </c>
+      <c r="H21">
+        <v>7.320925000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.04308579974893452</v>
+      </c>
+      <c r="J21">
+        <v>0.04308579974893453</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.907411333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.722234</v>
+      </c>
+      <c r="O21">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="P21">
+        <v>0.3921687876976707</v>
+      </c>
+      <c r="Q21">
+        <v>4.654671771827779</v>
+      </c>
+      <c r="R21">
+        <v>41.89204594645</v>
+      </c>
+      <c r="S21">
+        <v>0.01689690585452425</v>
+      </c>
+      <c r="T21">
+        <v>0.01689690585452426</v>
       </c>
     </row>
   </sheetData>
